--- a/Sepsis Research Background.xlsx
+++ b/Sepsis Research Background.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laxfr\Desktop\Fellowship Files\CHEAR Fellowship\Research\Sepsis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umhealth-my.sharepoint.com/personal/zrumlow_med_umich_edu/Documents/Desktop/New folder/Sepsis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D5B8B7-BEF0-450F-9BD5-E68C04C89F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{34D5B8B7-BEF0-450F-9BD5-E68C04C89F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBCFDF78-A197-4A65-A4E6-233EFBE58536}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{3935B4EA-96F9-4111-8293-90A155858C19}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{3935B4EA-96F9-4111-8293-90A155858C19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Title</t>
   </si>
@@ -165,9 +165,6 @@
     <t>pathophysiology</t>
   </si>
   <si>
-    <t>Epidemiology, global, methods, cost, risk factors, pathophysiology</t>
-  </si>
-  <si>
     <t>10.1038/s41390-021-01879-8</t>
   </si>
   <si>
@@ -205,13 +202,46 @@
   </si>
   <si>
     <t>epidemiology, methods, costs</t>
+  </si>
+  <si>
+    <t>The burden and contemporary epidemiology of sepsis in children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1016/S2352-4642(24)00140-8 </t>
+  </si>
+  <si>
+    <t>Description of global impact of sepsis</t>
+  </si>
+  <si>
+    <t>Discusses local and global limitations with how sepsis is being coded/defined (references 24 and 27)</t>
+  </si>
+  <si>
+    <t>Description of factors assocaited with sepsis, organ systems as cause of sepsis</t>
+  </si>
+  <si>
+    <t>Timing of sepsis (neonates then geriatrics with fall between), LRTI then BSI as source of sepsis</t>
+  </si>
+  <si>
+    <t>Cost of sepsis is greater than other hospitalizations, mortality is under-predicted based on limitations w/ defintions of pediatric sepsis, described mortality is ~25% w/ majority happening w/in 7 days without comorbid diseases but &gt; 7 days w/ comorbid diseases, mortality extends beyond discharge of patients</t>
+  </si>
+  <si>
+    <t>Narrative review of pediatric sepsis cases</t>
+  </si>
+  <si>
+    <t>Narrative review</t>
+  </si>
+  <si>
+    <t>Global, epidemiology, costs, mortality</t>
+  </si>
+  <si>
+    <t>Epidemiology, global, methods, cost, risk factors, pathophysiology, mortality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,13 +249,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,11 +283,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -265,7 +309,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Grayscale">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,34 +317,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="F8F8F8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="DDDDDD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="B2B2B2"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="969696"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="808080"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5F5F5F"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="4D4D4D"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="5F5F5F"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="919191"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -579,23 +623,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A609E013-7EFE-4F3F-A657-B792203374AD}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="35.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.1796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.453125" customWidth="1"/>
-    <col min="12" max="12" width="28.08984375" customWidth="1"/>
+    <col min="1" max="9" width="35.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,7 +678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -665,10 +710,10 @@
         <v>37</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -690,11 +735,11 @@
       <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -723,53 +768,85 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>54</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Sepsis Research Background.xlsx
+++ b/Sepsis Research Background.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umhealth-my.sharepoint.com/personal/zrumlow_med_umich_edu/Documents/Desktop/New folder/Sepsis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laxfr\Desktop\Fellowship Files\CHEAR Fellowship\Research\Sepsis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{34D5B8B7-BEF0-450F-9BD5-E68C04C89F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBCFDF78-A197-4A65-A4E6-233EFBE58536}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B734DF8-5B2A-49A2-90B5-B325DE06D7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{3935B4EA-96F9-4111-8293-90A155858C19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3935B4EA-96F9-4111-8293-90A155858C19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,19 +256,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -283,12 +283,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -626,21 +630,21 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="35.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="9" width="35.54296875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="33.1796875" style="4" customWidth="1"/>
+    <col min="11" max="11" width="30.453125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="28.1796875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +682,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -700,6 +704,7 @@
       <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
@@ -713,7 +718,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -735,11 +740,15 @@
       <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -761,14 +770,17 @@
       <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -781,11 +793,18 @@
       <c r="D5" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -807,6 +826,7 @@
       <c r="G6" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
         <v>51</v>
       </c>
@@ -816,8 +836,9 @@
       <c r="K6" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="116" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -839,6 +860,7 @@
       <c r="G7" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
         <v>62</v>
       </c>
@@ -848,6 +870,7 @@
       <c r="K7" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="L7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
